--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimbo\Documents\GitHub\nutrition_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E45213-25EA-4FD7-B155-55ED2AA01298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C8034-3094-4DA4-A4DE-978BCFA3D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lunch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
